--- a/testData/newegg.xlsx
+++ b/testData/newegg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/QATaskAutomation/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/test_brightdata/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="6_{7FD022CF-C216-4189-B51E-8EC99E25A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE8D9E8-E34F-4340-A3A1-6C7AF018F0F7}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="6_{7FD022CF-C216-4189-B51E-8EC99E25A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C1FCA8-9FE8-4A98-9233-5CCC47859605}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>action</t>
   </si>
@@ -77,16 +77,58 @@
     <t>waitfortext</t>
   </si>
   <si>
-    <t>https://www.newegg.com</t>
-  </si>
-  <si>
-    <t>Sign In / Register</t>
-  </si>
-  <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>Sign In</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>woodsblainem@gmail.com</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Welcome@123456</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>https://secure.newegg.com/shop/cart</t>
+  </si>
+  <si>
+    <t>https://www.ashleyfurniture.com/</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Account Login</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>Log in</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -429,7 +471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -479,14 +523,14 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="1">
         <v>1000</v>
       </c>
       <c r="H2" s="1">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -500,17 +544,17 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1">
         <v>1000</v>
       </c>
       <c r="H3" s="1">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -524,10 +568,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1">
@@ -537,8 +581,215 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5000</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13"/>
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
@@ -555,9 +806,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{8AF1255A-4244-4E3D-A366-62043C3DC001}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{EE758978-26E2-4392-8286-607A1EDB036D}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{A25DE87F-E190-4542-A3C8-FF4FEA490B90}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{8AF1255A-4244-4E3D-A366-62043C3DC001}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{D3064792-FA04-42F9-A7DC-1EDBB613F694}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>